--- a/Exports(percent_of_GDP).xlsx
+++ b/Exports(percent_of_GDP).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joseantonio/Documents/GitHub/Projeto 1 - 2019.2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arfom\Desktop\insper\jose\Projeto-1---2019.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B28F3F8B-E6DF-6140-81DF-6DA1DA6A32C1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{369EAC77-1F5E-4865-AE89-BF30DE34A4C3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="316">
   <si>
     <t>Country</t>
   </si>
@@ -45,159 +45,6 @@
   </si>
   <si>
     <t>Footnote</t>
-  </si>
-  <si>
-    <t>1961</t>
-  </si>
-  <si>
-    <t>1962</t>
-  </si>
-  <si>
-    <t>1963</t>
-  </si>
-  <si>
-    <t>1964</t>
-  </si>
-  <si>
-    <t>1965</t>
-  </si>
-  <si>
-    <t>1966</t>
-  </si>
-  <si>
-    <t>1967</t>
-  </si>
-  <si>
-    <t>1968</t>
-  </si>
-  <si>
-    <t>1969</t>
-  </si>
-  <si>
-    <t>1970</t>
-  </si>
-  <si>
-    <t>1971</t>
-  </si>
-  <si>
-    <t>1972</t>
-  </si>
-  <si>
-    <t>1973</t>
-  </si>
-  <si>
-    <t>1974</t>
-  </si>
-  <si>
-    <t>1975</t>
-  </si>
-  <si>
-    <t>1976</t>
-  </si>
-  <si>
-    <t>1977</t>
-  </si>
-  <si>
-    <t>1978</t>
-  </si>
-  <si>
-    <t>1979</t>
-  </si>
-  <si>
-    <t>1980</t>
-  </si>
-  <si>
-    <t>1981</t>
-  </si>
-  <si>
-    <t>1982</t>
-  </si>
-  <si>
-    <t>1983</t>
-  </si>
-  <si>
-    <t>1984</t>
-  </si>
-  <si>
-    <t>1985</t>
-  </si>
-  <si>
-    <t>1986</t>
-  </si>
-  <si>
-    <t>1987</t>
-  </si>
-  <si>
-    <t>1988</t>
-  </si>
-  <si>
-    <t>1989</t>
-  </si>
-  <si>
-    <t>1990</t>
-  </si>
-  <si>
-    <t>1991</t>
-  </si>
-  <si>
-    <t>1992</t>
-  </si>
-  <si>
-    <t>1993</t>
-  </si>
-  <si>
-    <t>1994</t>
-  </si>
-  <si>
-    <t>1995</t>
-  </si>
-  <si>
-    <t>1996</t>
-  </si>
-  <si>
-    <t>1997</t>
-  </si>
-  <si>
-    <t>1998</t>
-  </si>
-  <si>
-    <t>1999</t>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2011</t>
   </si>
   <si>
     <t>Definition and explanations</t>
@@ -1144,7 +991,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1215,6 +1062,13 @@
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1365,7 +1219,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1483,7 +1337,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1805,177 +1662,227 @@
   </sheetPr>
   <dimension ref="A1:AZ276"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
-      <selection activeCell="AZ1" sqref="AZ1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:AZ1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="52" width="10.83203125" customWidth="1"/>
+    <col min="2" max="52" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:52" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="39" t="s">
+      <c r="B1" s="39">
+        <v>1961</v>
+      </c>
+      <c r="C1" s="40">
+        <f>B1+1</f>
+        <v>1962</v>
+      </c>
+      <c r="D1" s="40">
+        <f t="shared" ref="D1:AZ1" si="0">C1+1</f>
+        <v>1963</v>
+      </c>
+      <c r="E1" s="40">
+        <f t="shared" si="0"/>
+        <v>1964</v>
+      </c>
+      <c r="F1" s="40">
+        <f t="shared" si="0"/>
+        <v>1965</v>
+      </c>
+      <c r="G1" s="40">
+        <f t="shared" si="0"/>
+        <v>1966</v>
+      </c>
+      <c r="H1" s="40">
+        <f t="shared" si="0"/>
+        <v>1967</v>
+      </c>
+      <c r="I1" s="40">
+        <f t="shared" si="0"/>
+        <v>1968</v>
+      </c>
+      <c r="J1" s="40">
+        <f t="shared" si="0"/>
+        <v>1969</v>
+      </c>
+      <c r="K1" s="40">
+        <f t="shared" si="0"/>
+        <v>1970</v>
+      </c>
+      <c r="L1" s="40">
+        <f t="shared" si="0"/>
+        <v>1971</v>
+      </c>
+      <c r="M1" s="40">
+        <f t="shared" si="0"/>
+        <v>1972</v>
+      </c>
+      <c r="N1" s="40">
+        <f t="shared" si="0"/>
+        <v>1973</v>
+      </c>
+      <c r="O1" s="40">
+        <f t="shared" si="0"/>
+        <v>1974</v>
+      </c>
+      <c r="P1" s="40">
+        <f t="shared" si="0"/>
+        <v>1975</v>
+      </c>
+      <c r="Q1" s="40">
+        <f t="shared" si="0"/>
+        <v>1976</v>
+      </c>
+      <c r="R1" s="40">
+        <f t="shared" si="0"/>
+        <v>1977</v>
+      </c>
+      <c r="S1" s="40">
+        <f t="shared" si="0"/>
+        <v>1978</v>
+      </c>
+      <c r="T1" s="40">
+        <f t="shared" si="0"/>
+        <v>1979</v>
+      </c>
+      <c r="U1" s="40">
+        <f t="shared" si="0"/>
+        <v>1980</v>
+      </c>
+      <c r="V1" s="40">
+        <f t="shared" si="0"/>
+        <v>1981</v>
+      </c>
+      <c r="W1" s="40">
+        <f t="shared" si="0"/>
+        <v>1982</v>
+      </c>
+      <c r="X1" s="40">
+        <f t="shared" si="0"/>
+        <v>1983</v>
+      </c>
+      <c r="Y1" s="40">
+        <f t="shared" si="0"/>
+        <v>1984</v>
+      </c>
+      <c r="Z1" s="40">
+        <f t="shared" si="0"/>
+        <v>1985</v>
+      </c>
+      <c r="AA1" s="40">
+        <f t="shared" si="0"/>
+        <v>1986</v>
+      </c>
+      <c r="AB1" s="40">
+        <f t="shared" si="0"/>
+        <v>1987</v>
+      </c>
+      <c r="AC1" s="40">
+        <f t="shared" si="0"/>
+        <v>1988</v>
+      </c>
+      <c r="AD1" s="40">
+        <f t="shared" si="0"/>
+        <v>1989</v>
+      </c>
+      <c r="AE1" s="40">
+        <f t="shared" si="0"/>
+        <v>1990</v>
+      </c>
+      <c r="AF1" s="40">
+        <f t="shared" si="0"/>
+        <v>1991</v>
+      </c>
+      <c r="AG1" s="40">
+        <f t="shared" si="0"/>
+        <v>1992</v>
+      </c>
+      <c r="AH1" s="40">
+        <f t="shared" si="0"/>
+        <v>1993</v>
+      </c>
+      <c r="AI1" s="40">
+        <f t="shared" si="0"/>
+        <v>1994</v>
+      </c>
+      <c r="AJ1" s="40">
+        <f t="shared" si="0"/>
+        <v>1995</v>
+      </c>
+      <c r="AK1" s="40">
+        <f t="shared" si="0"/>
+        <v>1996</v>
+      </c>
+      <c r="AL1" s="40">
+        <f t="shared" si="0"/>
+        <v>1997</v>
+      </c>
+      <c r="AM1" s="40">
+        <f t="shared" si="0"/>
+        <v>1998</v>
+      </c>
+      <c r="AN1" s="40">
+        <f t="shared" si="0"/>
+        <v>1999</v>
+      </c>
+      <c r="AO1" s="40">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="AP1" s="40">
+        <f t="shared" si="0"/>
+        <v>2001</v>
+      </c>
+      <c r="AQ1" s="40">
+        <f t="shared" si="0"/>
+        <v>2002</v>
+      </c>
+      <c r="AR1" s="40">
+        <f t="shared" si="0"/>
+        <v>2003</v>
+      </c>
+      <c r="AS1" s="40">
+        <f t="shared" si="0"/>
+        <v>2004</v>
+      </c>
+      <c r="AT1" s="40">
+        <f t="shared" si="0"/>
+        <v>2005</v>
+      </c>
+      <c r="AU1" s="40">
+        <f t="shared" si="0"/>
+        <v>2006</v>
+      </c>
+      <c r="AV1" s="40">
+        <f t="shared" si="0"/>
+        <v>2007</v>
+      </c>
+      <c r="AW1" s="40">
+        <f t="shared" si="0"/>
+        <v>2008</v>
+      </c>
+      <c r="AX1" s="40">
+        <f t="shared" si="0"/>
+        <v>2009</v>
+      </c>
+      <c r="AY1" s="40">
+        <f t="shared" si="0"/>
+        <v>2010</v>
+      </c>
+      <c r="AZ1" s="40">
+        <f t="shared" si="0"/>
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="2" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>5</v>
-      </c>
-      <c r="D1" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="N1" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="O1" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="P1" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q1" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="R1" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="S1" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="T1" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="U1" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="V1" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="W1" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="X1" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y1" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z1" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA1" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB1" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC1" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="AD1" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="AE1" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="AF1" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="AG1" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="AH1" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="AI1" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="AJ1" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="AK1" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="AL1" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="AM1" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="AN1" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="AO1" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="AP1" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="AQ1" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="AR1" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="AS1" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="AT1" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="AU1" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="AV1" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="AW1" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="AX1" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="AY1" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="AZ1" s="39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="6" t="s">
-        <v>56</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -2029,9 +1936,9 @@
       <c r="AY2" s="3"/>
       <c r="AZ2" s="3"/>
     </row>
-    <row r="3" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="B3" s="6">
         <v>4.4534433222639098</v>
@@ -2141,9 +2048,9 @@
         <v>18.106141885538101</v>
       </c>
     </row>
-    <row r="4" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -2197,9 +2104,9 @@
       <c r="AY4" s="3"/>
       <c r="AZ4" s="3"/>
     </row>
-    <row r="5" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -2317,9 +2224,9 @@
         <v>33.800932264274202</v>
       </c>
     </row>
-    <row r="6" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="B6" s="6">
         <v>46.244557134730201</v>
@@ -2473,9 +2380,9 @@
       </c>
       <c r="AZ6" s="3"/>
     </row>
-    <row r="7" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -2529,9 +2436,9 @@
       <c r="AY7" s="3"/>
       <c r="AZ7" s="3"/>
     </row>
-    <row r="8" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -2585,9 +2492,9 @@
       <c r="AY8" s="3"/>
       <c r="AZ8" s="3"/>
     </row>
-    <row r="9" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -2693,9 +2600,9 @@
         <v>64.976974862704793</v>
       </c>
     </row>
-    <row r="10" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -2749,9 +2656,9 @@
       <c r="AY10" s="3"/>
       <c r="AZ10" s="3"/>
     </row>
-    <row r="11" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -2875,9 +2782,9 @@
         <v>48.011927988676902</v>
       </c>
     </row>
-    <row r="12" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="B12" s="6">
         <v>5.99494697706381</v>
@@ -3033,9 +2940,9 @@
         <v>21.8234278163191</v>
       </c>
     </row>
-    <row r="13" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -3133,9 +3040,9 @@
         <v>23.4773616279805</v>
       </c>
     </row>
-    <row r="14" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -3205,9 +3112,9 @@
       <c r="AY14" s="3"/>
       <c r="AZ14" s="3"/>
     </row>
-    <row r="15" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="B15" s="6">
         <v>12.403100775193799</v>
@@ -3363,9 +3270,9 @@
         <v>21.2884821704906</v>
       </c>
     </row>
-    <row r="16" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>88</v>
+        <v>37</v>
       </c>
       <c r="B16" s="6">
         <v>23.005329793775498</v>
@@ -3521,9 +3428,9 @@
         <v>57.2917228561451</v>
       </c>
     </row>
-    <row r="17" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>89</v>
+        <v>38</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -3621,9 +3528,9 @@
         <v>62.799776787196798</v>
       </c>
     </row>
-    <row r="18" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -3745,9 +3652,9 @@
         <v>43.446599261330398</v>
       </c>
     </row>
-    <row r="19" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>92</v>
+        <v>41</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -3861,9 +3768,9 @@
       <c r="AY19" s="3"/>
       <c r="AZ19" s="3"/>
     </row>
-    <row r="20" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>94</v>
+        <v>43</v>
       </c>
       <c r="B20" s="6">
         <v>10.782353237086101</v>
@@ -4019,9 +3926,9 @@
         <v>22.900858311026902</v>
       </c>
     </row>
-    <row r="21" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="B21" s="6">
         <v>45.056320400500603</v>
@@ -4175,9 +4082,9 @@
       </c>
       <c r="AZ21" s="3"/>
     </row>
-    <row r="22" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -4275,9 +4182,9 @@
         <v>87.891918575802094</v>
       </c>
     </row>
-    <row r="23" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>99</v>
+        <v>48</v>
       </c>
       <c r="B23" s="6">
         <v>39.013174717579403</v>
@@ -4433,9 +4340,9 @@
         <v>84.343060167209202</v>
       </c>
     </row>
-    <row r="24" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>100</v>
+        <v>49</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -4553,9 +4460,9 @@
         <v>65.571675302245197</v>
       </c>
     </row>
-    <row r="25" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>105</v>
+        <v>54</v>
       </c>
       <c r="B25" s="6">
         <v>4.58348950215965</v>
@@ -4711,9 +4618,9 @@
         <v>14.877113473941099</v>
       </c>
     </row>
-    <row r="26" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>106</v>
+        <v>55</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -4775,9 +4682,9 @@
       <c r="AY26" s="3"/>
       <c r="AZ26" s="3"/>
     </row>
-    <row r="27" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>107</v>
+        <v>56</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -4895,9 +4802,9 @@
         <v>36.616821358016097</v>
       </c>
     </row>
-    <row r="28" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>108</v>
+        <v>57</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -5035,9 +4942,9 @@
         <v>44.118383543399403</v>
       </c>
     </row>
-    <row r="29" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>109</v>
+        <v>58</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -5127,9 +5034,9 @@
         <v>42.276703825020199</v>
       </c>
     </row>
-    <row r="30" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="B30" s="6">
         <v>27.2162720647421</v>
@@ -5285,9 +5192,9 @@
         <v>39.141916252565601</v>
       </c>
     </row>
-    <row r="31" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="B31" s="6">
         <v>7.2794102392918401</v>
@@ -5443,9 +5350,9 @@
         <v>11.889167671369799</v>
       </c>
     </row>
-    <row r="32" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>117</v>
+        <v>66</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -5499,9 +5406,9 @@
       <c r="AY32" s="3"/>
       <c r="AZ32" s="3"/>
     </row>
-    <row r="33" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>119</v>
+        <v>68</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -5621,9 +5528,9 @@
         <v>81.277211942155205</v>
       </c>
     </row>
-    <row r="34" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>124</v>
+        <v>73</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -5741,9 +5648,9 @@
         <v>66.512808714076201</v>
       </c>
     </row>
-    <row r="35" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>125</v>
+        <v>74</v>
       </c>
       <c r="B35" s="6">
         <v>5.42888600314856</v>
@@ -5889,9 +5796,9 @@
       <c r="AY35" s="3"/>
       <c r="AZ35" s="3"/>
     </row>
-    <row r="36" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>126</v>
+        <v>75</v>
       </c>
       <c r="B36" s="6">
         <v>12.9310346567012</v>
@@ -6047,9 +5954,9 @@
         <v>5.4855527589983604</v>
       </c>
     </row>
-    <row r="37" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="B37" s="6">
         <v>12.888889035535801</v>
@@ -6161,9 +6068,9 @@
         <v>54.080755914142699</v>
       </c>
     </row>
-    <row r="38" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>128</v>
+        <v>77</v>
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -6311,9 +6218,9 @@
         <v>30.672188462388799</v>
       </c>
     </row>
-    <row r="39" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>129</v>
+        <v>78</v>
       </c>
       <c r="B39" s="6">
         <v>17.752915128419399</v>
@@ -6469,9 +6376,9 @@
         <v>31.166295259761799</v>
       </c>
     </row>
-    <row r="40" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -6589,9 +6496,9 @@
         <v>42.239147176395797</v>
       </c>
     </row>
-    <row r="41" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>131</v>
+        <v>80</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -6645,9 +6552,9 @@
       <c r="AY41" s="3"/>
       <c r="AZ41" s="3"/>
     </row>
-    <row r="42" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>132</v>
+        <v>81</v>
       </c>
       <c r="B42" s="6">
         <v>26.490065776062501</v>
@@ -6803,9 +6710,9 @@
         <v>11.854060873066601</v>
       </c>
     </row>
-    <row r="43" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>133</v>
+        <v>82</v>
       </c>
       <c r="B43" s="6">
         <v>13.911033035699999</v>
@@ -6959,9 +6866,9 @@
       </c>
       <c r="AZ43" s="3"/>
     </row>
-    <row r="44" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>134</v>
+        <v>83</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -7015,9 +6922,9 @@
       <c r="AY44" s="3"/>
       <c r="AZ44" s="3"/>
     </row>
-    <row r="45" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>135</v>
+        <v>84</v>
       </c>
       <c r="B45" s="6">
         <v>12.041443034491801</v>
@@ -7173,9 +7080,9 @@
         <v>38.067539126637698</v>
       </c>
     </row>
-    <row r="46" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>136</v>
+        <v>85</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -7313,9 +7220,9 @@
         <v>31.373900042716802</v>
       </c>
     </row>
-    <row r="47" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>137</v>
+        <v>86</v>
       </c>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -7369,9 +7276,9 @@
       <c r="AY47" s="3"/>
       <c r="AZ47" s="3"/>
     </row>
-    <row r="48" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
-        <v>138</v>
+        <v>87</v>
       </c>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -7425,9 +7332,9 @@
       <c r="AY48" s="3"/>
       <c r="AZ48" s="3"/>
     </row>
-    <row r="49" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
-        <v>139</v>
+        <v>88</v>
       </c>
       <c r="B49" s="6">
         <v>12.9557802672841</v>
@@ -7583,9 +7490,9 @@
         <v>18.953692139535899</v>
       </c>
     </row>
-    <row r="50" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
-        <v>140</v>
+        <v>89</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -7703,9 +7610,9 @@
         <v>15.315090201056901</v>
       </c>
     </row>
-    <row r="51" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>141</v>
+        <v>90</v>
       </c>
       <c r="B51" s="6">
         <v>9.8578124484494598</v>
@@ -7861,9 +7768,9 @@
         <v>68.276631667673698</v>
       </c>
     </row>
-    <row r="52" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
-        <v>142</v>
+        <v>91</v>
       </c>
       <c r="B52" s="6">
         <v>19.459555476180299</v>
@@ -8019,9 +7926,9 @@
         <v>87.283049277842395</v>
       </c>
     </row>
-    <row r="53" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
-        <v>143</v>
+        <v>92</v>
       </c>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -8075,9 +7982,9 @@
       <c r="AY53" s="3"/>
       <c r="AZ53" s="3"/>
     </row>
-    <row r="54" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
-        <v>144</v>
+        <v>93</v>
       </c>
       <c r="B54" s="6">
         <v>21.779915737542101</v>
@@ -8233,9 +8140,9 @@
         <v>37.384057736599999</v>
       </c>
     </row>
-    <row r="55" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
-        <v>145</v>
+        <v>94</v>
       </c>
       <c r="B55" s="6">
         <v>35.292519434856302</v>
@@ -8391,9 +8298,9 @@
         <v>43.740032906820403</v>
       </c>
     </row>
-    <row r="56" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
-        <v>146</v>
+        <v>95</v>
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -8489,9 +8396,9 @@
         <v>41.779996624500001</v>
       </c>
     </row>
-    <row r="57" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
-        <v>147</v>
+        <v>96</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -8627,9 +8534,9 @@
       </c>
       <c r="AZ57" s="3"/>
     </row>
-    <row r="58" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
-        <v>148</v>
+        <v>97</v>
       </c>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -8755,9 +8662,9 @@
       </c>
       <c r="AZ58" s="3"/>
     </row>
-    <row r="59" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
-        <v>149</v>
+        <v>98</v>
       </c>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -8855,9 +8762,9 @@
         <v>72.547294324681005</v>
       </c>
     </row>
-    <row r="60" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
-        <v>150</v>
+        <v>99</v>
       </c>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -8911,9 +8818,9 @@
       <c r="AY60" s="3"/>
       <c r="AZ60" s="3"/>
     </row>
-    <row r="61" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
-        <v>151</v>
+        <v>100</v>
       </c>
       <c r="B61" s="6">
         <v>29.996963472121902</v>
@@ -9069,9 +8976,9 @@
         <v>53.4088968126472</v>
       </c>
     </row>
-    <row r="62" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
-        <v>152</v>
+        <v>101</v>
       </c>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -9161,9 +9068,9 @@
       <c r="AY62" s="3"/>
       <c r="AZ62" s="3"/>
     </row>
-    <row r="63" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
-        <v>153</v>
+        <v>102</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -9287,9 +9194,9 @@
         <v>34.363136170084402</v>
       </c>
     </row>
-    <row r="64" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
-        <v>154</v>
+        <v>103</v>
       </c>
       <c r="B64" s="6">
         <v>23.253319491620399</v>
@@ -9445,9 +9352,9 @@
         <v>24.921750172627601</v>
       </c>
     </row>
-    <row r="65" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
-        <v>155</v>
+        <v>104</v>
       </c>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -9501,9 +9408,9 @@
       <c r="AY65" s="3"/>
       <c r="AZ65" s="3"/>
     </row>
-    <row r="66" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
-        <v>156</v>
+        <v>105</v>
       </c>
       <c r="B66" s="6">
         <v>16.493212656770702</v>
@@ -9659,9 +9566,9 @@
         <v>32.9494062897801</v>
       </c>
     </row>
-    <row r="67" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
-        <v>157</v>
+        <v>106</v>
       </c>
       <c r="B67" s="6">
         <v>17.206649274904098</v>
@@ -9817,9 +9724,9 @@
         <v>23.314784494304298</v>
       </c>
     </row>
-    <row r="68" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
-        <v>158</v>
+        <v>107</v>
       </c>
       <c r="B68" s="6">
         <v>22.2934741606941</v>
@@ -9975,9 +9882,9 @@
         <v>28.0856767342902</v>
       </c>
     </row>
-    <row r="69" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
-        <v>159</v>
+        <v>108</v>
       </c>
       <c r="B69" s="3"/>
       <c r="C69" s="6">
@@ -10115,9 +10022,9 @@
         <v>71.393520343714499</v>
       </c>
     </row>
-    <row r="70" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
-        <v>160</v>
+        <v>109</v>
       </c>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -10207,9 +10114,9 @@
       <c r="AY70" s="3"/>
       <c r="AZ70" s="3"/>
     </row>
-    <row r="71" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
-        <v>161</v>
+        <v>110</v>
       </c>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -10263,9 +10170,9 @@
       <c r="AY71" s="3"/>
       <c r="AZ71" s="3"/>
     </row>
-    <row r="72" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
-        <v>162</v>
+        <v>111</v>
       </c>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -10353,9 +10260,9 @@
         <v>91.509209223014906</v>
       </c>
     </row>
-    <row r="73" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
-        <v>163</v>
+        <v>112</v>
       </c>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -10471,9 +10378,9 @@
         <v>16.842730391929699</v>
       </c>
     </row>
-    <row r="74" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
-        <v>164</v>
+        <v>113</v>
       </c>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -10527,9 +10434,9 @@
       <c r="AY74" s="3"/>
       <c r="AZ74" s="3"/>
     </row>
-    <row r="75" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
-        <v>165</v>
+        <v>114</v>
       </c>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -10583,9 +10490,9 @@
       <c r="AY75" s="3"/>
       <c r="AZ75" s="3"/>
     </row>
-    <row r="76" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
-        <v>166</v>
+        <v>115</v>
       </c>
       <c r="B76" s="6">
         <v>30.678148546824499</v>
@@ -10741,9 +10648,9 @@
         <v>47.522202360018603</v>
       </c>
     </row>
-    <row r="77" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
-        <v>167</v>
+        <v>116</v>
       </c>
       <c r="B77" s="6">
         <v>20.009539016993301</v>
@@ -10899,9 +10806,9 @@
         <v>40.701174432850301</v>
       </c>
     </row>
-    <row r="78" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
-        <v>168</v>
+        <v>117</v>
       </c>
       <c r="B78" s="6">
         <v>13.919186178957499</v>
@@ -11057,9 +10964,9 @@
         <v>26.955601893721301</v>
       </c>
     </row>
-    <row r="79" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
-        <v>169</v>
+        <v>118</v>
       </c>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -11113,9 +11020,9 @@
       <c r="AY79" s="3"/>
       <c r="AZ79" s="3"/>
     </row>
-    <row r="80" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
-        <v>170</v>
+        <v>119</v>
       </c>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -11189,9 +11096,9 @@
       <c r="AY80" s="3"/>
       <c r="AZ80" s="3"/>
     </row>
-    <row r="81" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
-        <v>171</v>
+        <v>120</v>
       </c>
       <c r="B81" s="6">
         <v>31.2116929829848</v>
@@ -11347,9 +11254,9 @@
         <v>64.556664323061099</v>
       </c>
     </row>
-    <row r="82" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
-        <v>172</v>
+        <v>121</v>
       </c>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -11495,9 +11402,9 @@
         <v>28.862779086049802</v>
       </c>
     </row>
-    <row r="83" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
-        <v>173</v>
+        <v>122</v>
       </c>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -11601,9 +11508,9 @@
         <v>36.451126251221702</v>
       </c>
     </row>
-    <row r="84" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
-        <v>174</v>
+        <v>123</v>
       </c>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -11741,9 +11648,9 @@
         <v>50.173956645838203</v>
       </c>
     </row>
-    <row r="85" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
-        <v>175</v>
+        <v>124</v>
       </c>
       <c r="B85" s="6">
         <v>26.134652613465299</v>
@@ -11899,9 +11806,9 @@
         <v>38.015115940537299</v>
       </c>
     </row>
-    <row r="86" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
-        <v>176</v>
+        <v>125</v>
       </c>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -11955,9 +11862,9 @@
       <c r="AY86" s="3"/>
       <c r="AZ86" s="3"/>
     </row>
-    <row r="87" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
-        <v>177</v>
+        <v>126</v>
       </c>
       <c r="B87" s="6">
         <v>8.6544989973243904</v>
@@ -12113,9 +12020,9 @@
         <v>25.0549322714743</v>
       </c>
     </row>
-    <row r="88" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
-        <v>178</v>
+        <v>127</v>
       </c>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -12169,9 +12076,9 @@
       <c r="AY88" s="3"/>
       <c r="AZ88" s="3"/>
     </row>
-    <row r="89" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
-        <v>179</v>
+        <v>128</v>
       </c>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -12295,9 +12202,9 @@
         <v>22.570235929330199</v>
       </c>
     </row>
-    <row r="90" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
-        <v>180</v>
+        <v>129</v>
       </c>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -12351,9 +12258,9 @@
       <c r="AY90" s="3"/>
       <c r="AZ90" s="3"/>
     </row>
-    <row r="91" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
-        <v>181</v>
+        <v>130</v>
       </c>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -12407,9 +12314,9 @@
       <c r="AY91" s="3"/>
       <c r="AZ91" s="3"/>
     </row>
-    <row r="92" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
-        <v>182</v>
+        <v>131</v>
       </c>
       <c r="B92" s="6">
         <v>11.9531913694682</v>
@@ -12565,9 +12472,9 @@
         <v>27.141543347386499</v>
       </c>
     </row>
-    <row r="93" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
-        <v>183</v>
+        <v>132</v>
       </c>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -12621,9 +12528,9 @@
       <c r="AY93" s="3"/>
       <c r="AZ93" s="3"/>
     </row>
-    <row r="94" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
-        <v>184</v>
+        <v>133</v>
       </c>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -12729,9 +12636,9 @@
         <v>30.291920456651798</v>
       </c>
     </row>
-    <row r="95" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
-        <v>185</v>
+        <v>134</v>
       </c>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -12851,9 +12758,9 @@
       <c r="AY95" s="3"/>
       <c r="AZ95" s="3"/>
     </row>
-    <row r="96" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
-        <v>186</v>
+        <v>135</v>
       </c>
       <c r="B96" s="6">
         <v>52.0715630885122</v>
@@ -12997,9 +12904,9 @@
       <c r="AY96" s="3"/>
       <c r="AZ96" s="3"/>
     </row>
-    <row r="97" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
-        <v>187</v>
+        <v>136</v>
       </c>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -13095,9 +13002,9 @@
         <v>13.669726927947799</v>
       </c>
     </row>
-    <row r="98" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
-        <v>188</v>
+        <v>137</v>
       </c>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -13151,9 +13058,9 @@
       <c r="AY98" s="3"/>
       <c r="AZ98" s="3"/>
     </row>
-    <row r="99" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
-        <v>189</v>
+        <v>138</v>
       </c>
       <c r="B99" s="6">
         <v>22.318921953958402</v>
@@ -13309,9 +13216,9 @@
         <v>47.574820979048198</v>
       </c>
     </row>
-    <row r="100" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
-        <v>190</v>
+        <v>139</v>
       </c>
       <c r="B100" s="6">
         <v>71.626188131771897</v>
@@ -13467,9 +13374,9 @@
         <v>225.491487937908</v>
       </c>
     </row>
-    <row r="101" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
-        <v>191</v>
+        <v>140</v>
       </c>
       <c r="B101" s="6">
         <v>22.817074750615401</v>
@@ -13625,9 +13532,9 @@
         <v>92.265835058942997</v>
       </c>
     </row>
-    <row r="102" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
-        <v>192</v>
+        <v>141</v>
       </c>
       <c r="B102" s="6">
         <v>41.401602377978797</v>
@@ -13783,9 +13690,9 @@
         <v>59.316585518141103</v>
       </c>
     </row>
-    <row r="103" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
-        <v>193</v>
+        <v>142</v>
       </c>
       <c r="B103" s="6">
         <v>4.2294152162712697</v>
@@ -13941,9 +13848,9 @@
         <v>24.635941368583101</v>
       </c>
     </row>
-    <row r="104" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
-        <v>194</v>
+        <v>143</v>
       </c>
       <c r="B104" s="6">
         <v>10.7110467741935</v>
@@ -14099,9 +14006,9 @@
         <v>26.3273803270252</v>
       </c>
     </row>
-    <row r="105" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
-        <v>195</v>
+        <v>144</v>
       </c>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -14241,9 +14148,9 @@
       <c r="AY105" s="3"/>
       <c r="AZ105" s="3"/>
     </row>
-    <row r="106" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
-        <v>196</v>
+        <v>145</v>
       </c>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -14297,9 +14204,9 @@
       <c r="AY106" s="3"/>
       <c r="AZ106" s="3"/>
     </row>
-    <row r="107" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
-        <v>197</v>
+        <v>146</v>
       </c>
       <c r="B107" s="6">
         <v>32.104050819446201</v>
@@ -14455,9 +14362,9 @@
         <v>106.61808421301301</v>
       </c>
     </row>
-    <row r="108" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
-        <v>198</v>
+        <v>147</v>
       </c>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -14511,9 +14418,9 @@
       <c r="AY108" s="3"/>
       <c r="AZ108" s="3"/>
     </row>
-    <row r="109" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
-        <v>199</v>
+        <v>148</v>
       </c>
       <c r="B109" s="6">
         <v>11.5340285203908</v>
@@ -14669,9 +14576,9 @@
         <v>36.908118854255498</v>
       </c>
     </row>
-    <row r="110" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
-        <v>200</v>
+        <v>149</v>
       </c>
       <c r="B110" s="6">
         <v>12.7924035044913</v>
@@ -14827,9 +14734,9 @@
         <v>28.8393160988179</v>
       </c>
     </row>
-    <row r="111" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
-        <v>201</v>
+        <v>150</v>
       </c>
       <c r="B111" s="6">
         <v>33.2967757564723</v>
@@ -14977,9 +14884,9 @@
         <v>30.912466555133399</v>
       </c>
     </row>
-    <row r="112" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
-        <v>202</v>
+        <v>151</v>
       </c>
       <c r="B112" s="6">
         <v>9.2779212971768192</v>
@@ -15135,9 +15042,9 @@
         <v>15.2210236416878</v>
       </c>
     </row>
-    <row r="113" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="s">
-        <v>203</v>
+        <v>152</v>
       </c>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -15191,9 +15098,9 @@
       <c r="AY113" s="3"/>
       <c r="AZ113" s="3"/>
     </row>
-    <row r="114" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
-        <v>204</v>
+        <v>153</v>
       </c>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -15319,9 +15226,9 @@
         <v>45.578012951307699</v>
       </c>
     </row>
-    <row r="115" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
-        <v>205</v>
+        <v>154</v>
       </c>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -15415,9 +15322,9 @@
         <v>49.474964156427603</v>
       </c>
     </row>
-    <row r="116" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
-        <v>206</v>
+        <v>155</v>
       </c>
       <c r="B116" s="6">
         <v>32.7171704543739</v>
@@ -15573,9 +15480,9 @@
         <v>29.1110941939701</v>
       </c>
     </row>
-    <row r="117" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
-        <v>207</v>
+        <v>156</v>
       </c>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -15695,9 +15602,9 @@
       <c r="AY117" s="3"/>
       <c r="AZ117" s="3"/>
     </row>
-    <row r="118" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
-        <v>208</v>
+        <v>157</v>
       </c>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -15751,9 +15658,9 @@
       <c r="AY118" s="3"/>
       <c r="AZ118" s="3"/>
     </row>
-    <row r="119" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
-        <v>209</v>
+        <v>158</v>
       </c>
       <c r="B119" s="6">
         <v>5.2754335650507702</v>
@@ -15909,9 +15816,9 @@
         <v>56.159563738018399</v>
       </c>
     </row>
-    <row r="120" spans="1:52" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:52" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
-        <v>210</v>
+        <v>159</v>
       </c>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -15965,9 +15872,9 @@
       <c r="AY120" s="3"/>
       <c r="AZ120" s="3"/>
     </row>
-    <row r="121" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
-        <v>211</v>
+        <v>160</v>
       </c>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -16033,9 +15940,9 @@
         <v>20.054340794410699</v>
       </c>
     </row>
-    <row r="122" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
-        <v>212</v>
+        <v>161</v>
       </c>
       <c r="B122" s="3"/>
       <c r="C122" s="6">
@@ -16189,9 +16096,9 @@
         <v>65.920469468155005</v>
       </c>
     </row>
-    <row r="123" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
-        <v>213</v>
+        <v>162</v>
       </c>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -16289,9 +16196,9 @@
         <v>57.207190713703497</v>
       </c>
     </row>
-    <row r="124" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
-        <v>214</v>
+        <v>163</v>
       </c>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -16401,9 +16308,9 @@
         <v>37.680514514439899</v>
       </c>
     </row>
-    <row r="125" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
-        <v>215</v>
+        <v>164</v>
       </c>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -16501,9 +16408,9 @@
         <v>59.315726290516203</v>
       </c>
     </row>
-    <row r="126" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
-        <v>216</v>
+        <v>165</v>
       </c>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -16603,9 +16510,9 @@
         <v>23.744301649451</v>
       </c>
     </row>
-    <row r="127" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
-        <v>217</v>
+        <v>166</v>
       </c>
       <c r="B127" s="6">
         <v>12.5490196078431</v>
@@ -16761,9 +16668,9 @@
         <v>46.398279483284902</v>
       </c>
     </row>
-    <row r="128" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="6" t="s">
-        <v>218</v>
+        <v>167</v>
       </c>
       <c r="B128" s="6">
         <v>34.580074795614401</v>
@@ -16899,9 +16806,9 @@
         <v>27.484529831603599</v>
       </c>
     </row>
-    <row r="129" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
-        <v>219</v>
+        <v>168</v>
       </c>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -16993,9 +16900,9 @@
       <c r="AY129" s="3"/>
       <c r="AZ129" s="3"/>
     </row>
-    <row r="130" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="6" t="s">
-        <v>220</v>
+        <v>169</v>
       </c>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -17049,9 +16956,9 @@
       <c r="AY130" s="3"/>
       <c r="AZ130" s="3"/>
     </row>
-    <row r="131" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="6" t="s">
-        <v>221</v>
+        <v>170</v>
       </c>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -17149,9 +17056,9 @@
         <v>77.778616304737497</v>
       </c>
     </row>
-    <row r="132" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="6" t="s">
-        <v>222</v>
+        <v>171</v>
       </c>
       <c r="B132" s="6">
         <v>89.010875953703803</v>
@@ -17307,9 +17214,9 @@
         <v>176.49033656620799</v>
       </c>
     </row>
-    <row r="133" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
-        <v>223</v>
+        <v>172</v>
       </c>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -17423,9 +17330,9 @@
         <v>112.36333360447099</v>
       </c>
     </row>
-    <row r="134" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="6" t="s">
-        <v>224</v>
+        <v>173</v>
       </c>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
@@ -17523,9 +17430,9 @@
         <v>49.397799264644</v>
       </c>
     </row>
-    <row r="135" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
-        <v>225</v>
+        <v>174</v>
       </c>
       <c r="B135" s="6">
         <v>14.604749208431601</v>
@@ -17681,9 +17588,9 @@
         <v>26.061178050862502</v>
       </c>
     </row>
-    <row r="136" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="6" t="s">
-        <v>226</v>
+        <v>175</v>
       </c>
       <c r="B136" s="6">
         <v>20.609462710505198</v>
@@ -17839,9 +17746,9 @@
         <v>29.585606963645599</v>
       </c>
     </row>
-    <row r="137" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="6" t="s">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="B137" s="6">
         <v>46.095960410431701</v>
@@ -17997,9 +17904,9 @@
         <v>91.557483474976394</v>
       </c>
     </row>
-    <row r="138" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="6" t="s">
-        <v>228</v>
+        <v>177</v>
       </c>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
@@ -18117,9 +18024,9 @@
         <v>113.508573261046</v>
       </c>
     </row>
-    <row r="139" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="6" t="s">
-        <v>229</v>
+        <v>178</v>
       </c>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
@@ -18255,9 +18162,9 @@
       <c r="AY139" s="3"/>
       <c r="AZ139" s="3"/>
     </row>
-    <row r="140" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="6" t="s">
-        <v>230</v>
+        <v>179</v>
       </c>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
@@ -18395,9 +18302,9 @@
         <v>97.983732207101497</v>
       </c>
     </row>
-    <row r="141" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="6" t="s">
-        <v>231</v>
+        <v>180</v>
       </c>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
@@ -18451,9 +18358,9 @@
       <c r="AY141" s="3"/>
       <c r="AZ141" s="3"/>
     </row>
-    <row r="142" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="6" t="s">
-        <v>232</v>
+        <v>181</v>
       </c>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
@@ -18507,9 +18414,9 @@
       <c r="AY142" s="3"/>
       <c r="AZ142" s="3"/>
     </row>
-    <row r="143" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="6" t="s">
-        <v>233</v>
+        <v>182</v>
       </c>
       <c r="B143" s="6">
         <v>14.3401977124085</v>
@@ -18665,9 +18572,9 @@
         <v>74.106637540370599</v>
       </c>
     </row>
-    <row r="144" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="6" t="s">
-        <v>234</v>
+        <v>183</v>
       </c>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
@@ -18793,9 +18700,9 @@
         <v>54.130116575928596</v>
       </c>
     </row>
-    <row r="145" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="6" t="s">
-        <v>235</v>
+        <v>184</v>
       </c>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
@@ -18849,9 +18756,9 @@
       <c r="AY145" s="3"/>
       <c r="AZ145" s="3"/>
     </row>
-    <row r="146" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="6" t="s">
-        <v>236</v>
+        <v>185</v>
       </c>
       <c r="B146" s="6">
         <v>8.4160778879877896</v>
@@ -19007,9 +18914,9 @@
         <v>31.668236363499901</v>
       </c>
     </row>
-    <row r="147" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="6" t="s">
-        <v>237</v>
+        <v>186</v>
       </c>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
@@ -19065,9 +18972,9 @@
       <c r="AY147" s="3"/>
       <c r="AZ147" s="3"/>
     </row>
-    <row r="148" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="6" t="s">
-        <v>238</v>
+        <v>187</v>
       </c>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
@@ -19165,9 +19072,9 @@
         <v>45.017592712290998</v>
       </c>
     </row>
-    <row r="149" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="6" t="s">
-        <v>239</v>
+        <v>188</v>
       </c>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
@@ -19221,9 +19128,9 @@
       <c r="AY149" s="3"/>
       <c r="AZ149" s="3"/>
     </row>
-    <row r="150" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="6" t="s">
-        <v>240</v>
+        <v>189</v>
       </c>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
@@ -19339,9 +19246,9 @@
         <v>62.341728468354198</v>
       </c>
     </row>
-    <row r="151" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="6" t="s">
-        <v>241</v>
+        <v>190</v>
       </c>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
@@ -19419,9 +19326,9 @@
         <v>40.176310890954397</v>
       </c>
     </row>
-    <row r="152" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="6" t="s">
-        <v>242</v>
+        <v>191</v>
       </c>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
@@ -19475,9 +19382,9 @@
       <c r="AY152" s="3"/>
       <c r="AZ152" s="3"/>
     </row>
-    <row r="153" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="6" t="s">
-        <v>243</v>
+        <v>192</v>
       </c>
       <c r="B153" s="6">
         <v>21.7539725319117</v>
@@ -19633,9 +19540,9 @@
         <v>34.592303505399201</v>
       </c>
     </row>
-    <row r="154" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="6" t="s">
-        <v>244</v>
+        <v>193</v>
       </c>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
@@ -19753,9 +19660,9 @@
         <v>28.901718511103802</v>
       </c>
     </row>
-    <row r="155" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="6" t="s">
-        <v>245</v>
+        <v>194</v>
       </c>
       <c r="B155" s="6">
         <v>16.493024938133701</v>
@@ -19897,9 +19804,9 @@
       <c r="AY155" s="3"/>
       <c r="AZ155" s="3"/>
     </row>
-    <row r="156" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="6" t="s">
-        <v>246</v>
+        <v>195</v>
       </c>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
@@ -20017,9 +19924,9 @@
         <v>42.626413049882203</v>
       </c>
     </row>
-    <row r="157" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="6" t="s">
-        <v>247</v>
+        <v>196</v>
       </c>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
@@ -20073,9 +19980,9 @@
       <c r="AY157" s="3"/>
       <c r="AZ157" s="3"/>
     </row>
-    <row r="158" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="6" t="s">
-        <v>248</v>
+        <v>197</v>
       </c>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
@@ -20223,9 +20130,9 @@
         <v>8.9004914453458692</v>
       </c>
     </row>
-    <row r="159" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="6" t="s">
-        <v>249</v>
+        <v>198</v>
       </c>
       <c r="B159" s="6">
         <v>46.607373725498398</v>
@@ -20381,9 +20288,9 @@
         <v>82.997077942033997</v>
       </c>
     </row>
-    <row r="160" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="6" t="s">
-        <v>250</v>
+        <v>199</v>
       </c>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
@@ -20437,9 +20344,9 @@
       <c r="AY160" s="3"/>
       <c r="AZ160" s="3"/>
     </row>
-    <row r="161" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="6" t="s">
-        <v>251</v>
+        <v>200</v>
       </c>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
@@ -20513,9 +20420,9 @@
       <c r="AY161" s="3"/>
       <c r="AZ161" s="3"/>
     </row>
-    <row r="162" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="6" t="s">
-        <v>252</v>
+        <v>201</v>
       </c>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
@@ -20651,9 +20558,9 @@
         <v>30.034566371411799</v>
       </c>
     </row>
-    <row r="163" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="6" t="s">
-        <v>253</v>
+        <v>202</v>
       </c>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
@@ -20707,9 +20614,9 @@
       <c r="AY163" s="3"/>
       <c r="AZ163" s="3"/>
     </row>
-    <row r="164" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="6" t="s">
-        <v>254</v>
+        <v>203</v>
       </c>
       <c r="B164" s="6">
         <v>23.401895622275401</v>
@@ -20865,9 +20772,9 @@
         <v>41.093063114109697</v>
       </c>
     </row>
-    <row r="165" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="6" t="s">
-        <v>255</v>
+        <v>204</v>
       </c>
       <c r="B165" s="6">
         <v>8.1212351517779293</v>
@@ -21011,9 +20918,9 @@
       <c r="AY165" s="3"/>
       <c r="AZ165" s="3"/>
     </row>
-    <row r="166" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="6" t="s">
-        <v>256</v>
+        <v>205</v>
       </c>
       <c r="B166" s="6">
         <v>9.1851273083891805</v>
@@ -21169,9 +21076,9 @@
         <v>39.615506301497298</v>
       </c>
     </row>
-    <row r="167" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="6" t="s">
-        <v>257</v>
+        <v>206</v>
       </c>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
@@ -21225,9 +21132,9 @@
       <c r="AY167" s="3"/>
       <c r="AZ167" s="3"/>
     </row>
-    <row r="168" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="6" t="s">
-        <v>258</v>
+        <v>207</v>
       </c>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
@@ -21281,9 +21188,9 @@
       <c r="AY168" s="3"/>
       <c r="AZ168" s="3"/>
     </row>
-    <row r="169" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="6" t="s">
-        <v>259</v>
+        <v>208</v>
       </c>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
@@ -21337,9 +21244,9 @@
       <c r="AY169" s="3"/>
       <c r="AZ169" s="3"/>
     </row>
-    <row r="170" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="6" t="s">
-        <v>260</v>
+        <v>209</v>
       </c>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
@@ -21393,9 +21300,9 @@
       <c r="AY170" s="3"/>
       <c r="AZ170" s="3"/>
     </row>
-    <row r="171" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="6" t="s">
-        <v>261</v>
+        <v>210</v>
       </c>
       <c r="B171" s="6">
         <v>34.950893946189098</v>
@@ -21551,9 +21458,9 @@
         <v>42.094446643795898</v>
       </c>
     </row>
-    <row r="172" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="6" t="s">
-        <v>262</v>
+        <v>211</v>
       </c>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
@@ -21691,9 +21598,9 @@
       <c r="AY172" s="3"/>
       <c r="AZ172" s="3"/>
     </row>
-    <row r="173" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="6" t="s">
-        <v>263</v>
+        <v>212</v>
       </c>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
@@ -21837,9 +21744,9 @@
         <v>14.1553721534413</v>
       </c>
     </row>
-    <row r="174" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="6" t="s">
-        <v>264</v>
+        <v>213</v>
       </c>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
@@ -21935,9 +21842,9 @@
         <v>103.25203789932399</v>
       </c>
     </row>
-    <row r="175" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="6" t="s">
-        <v>265</v>
+        <v>214</v>
       </c>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
@@ -22055,9 +21962,9 @@
         <v>80.798645161531198</v>
       </c>
     </row>
-    <row r="176" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="6" t="s">
-        <v>266</v>
+        <v>215</v>
       </c>
       <c r="B176" s="6">
         <v>16.102470265324801</v>
@@ -22213,9 +22120,9 @@
         <v>50.988523156487602</v>
       </c>
     </row>
-    <row r="177" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="6" t="s">
-        <v>267</v>
+        <v>216</v>
       </c>
       <c r="B177" s="6">
         <v>19.2172915058112</v>
@@ -22371,9 +22278,9 @@
         <v>48.532037791070103</v>
       </c>
     </row>
-    <row r="178" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="6" t="s">
-        <v>268</v>
+        <v>217</v>
       </c>
       <c r="B178" s="6">
         <v>21.375350860991301</v>
@@ -22529,9 +22436,9 @@
         <v>28.679620253202401</v>
       </c>
     </row>
-    <row r="179" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="6" t="s">
-        <v>269</v>
+        <v>218</v>
       </c>
       <c r="B179" s="6">
         <v>12.592428224138599</v>
@@ -22687,9 +22594,9 @@
         <v>31.020135279375602</v>
       </c>
     </row>
-    <row r="180" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="6" t="s">
-        <v>270</v>
+        <v>219</v>
       </c>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
@@ -22743,9 +22650,9 @@
       <c r="AY180" s="3"/>
       <c r="AZ180" s="3"/>
     </row>
-    <row r="181" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="6" t="s">
-        <v>271</v>
+        <v>220</v>
       </c>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
@@ -22841,9 +22748,9 @@
       </c>
       <c r="AZ181" s="3"/>
     </row>
-    <row r="182" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="6" t="s">
-        <v>272</v>
+        <v>221</v>
       </c>
       <c r="B182" s="6">
         <v>13.471807600617201</v>
@@ -22999,9 +22906,9 @@
         <v>35.5091305899631</v>
       </c>
     </row>
-    <row r="183" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="6" t="s">
-        <v>273</v>
+        <v>222</v>
       </c>
       <c r="B183" s="6">
         <v>45.3541268318032</v>
@@ -23151,9 +23058,9 @@
       </c>
       <c r="AZ183" s="3"/>
     </row>
-    <row r="184" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="6" t="s">
-        <v>274</v>
+        <v>223</v>
       </c>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
@@ -23239,9 +23146,9 @@
       <c r="AY184" s="3"/>
       <c r="AZ184" s="3"/>
     </row>
-    <row r="185" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="6" t="s">
-        <v>275</v>
+        <v>224</v>
       </c>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
@@ -23295,9 +23202,9 @@
       <c r="AY185" s="3"/>
       <c r="AZ185" s="3"/>
     </row>
-    <row r="186" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="6" t="s">
-        <v>276</v>
+        <v>225</v>
       </c>
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
@@ -23395,9 +23302,9 @@
         <v>22.332360382300401</v>
       </c>
     </row>
-    <row r="187" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="6" t="s">
-        <v>277</v>
+        <v>226</v>
       </c>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
@@ -23497,9 +23404,9 @@
         <v>31.051399849483399</v>
       </c>
     </row>
-    <row r="188" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="6" t="s">
-        <v>278</v>
+        <v>227</v>
       </c>
       <c r="B188" s="6">
         <v>11.475408391292801</v>
@@ -23655,9 +23562,9 @@
         <v>13.423515830042501</v>
       </c>
     </row>
-    <row r="189" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="6" t="s">
-        <v>279</v>
+        <v>228</v>
       </c>
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
@@ -23711,9 +23618,9 @@
       <c r="AY189" s="3"/>
       <c r="AZ189" s="3"/>
     </row>
-    <row r="190" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="6" t="s">
-        <v>280</v>
+        <v>229</v>
       </c>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
@@ -23767,9 +23674,9 @@
       <c r="AY190" s="3"/>
       <c r="AZ190" s="3"/>
     </row>
-    <row r="191" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="6" t="s">
-        <v>281</v>
+        <v>230</v>
       </c>
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
@@ -23893,9 +23800,9 @@
         <v>32.702982542060802</v>
       </c>
     </row>
-    <row r="192" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="6" t="s">
-        <v>282</v>
+        <v>231</v>
       </c>
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
@@ -24015,9 +23922,9 @@
         <v>44.4331169633138</v>
       </c>
     </row>
-    <row r="193" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="6" t="s">
-        <v>283</v>
+        <v>232</v>
       </c>
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
@@ -24071,9 +23978,9 @@
       <c r="AY193" s="3"/>
       <c r="AZ193" s="3"/>
     </row>
-    <row r="194" spans="1:52" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:52" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="6" t="s">
-        <v>284</v>
+        <v>233</v>
       </c>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
@@ -24197,9 +24104,9 @@
         <v>27.071756418301899</v>
       </c>
     </row>
-    <row r="195" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="6" t="s">
-        <v>285</v>
+        <v>234</v>
       </c>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
@@ -24253,9 +24160,9 @@
       <c r="AY195" s="3"/>
       <c r="AZ195" s="3"/>
     </row>
-    <row r="196" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="6" t="s">
-        <v>286</v>
+        <v>235</v>
       </c>
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
@@ -24345,9 +24252,9 @@
         <v>31.351632158829499</v>
       </c>
     </row>
-    <row r="197" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="6" t="s">
-        <v>287</v>
+        <v>236</v>
       </c>
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
@@ -24401,9 +24308,9 @@
       <c r="AY197" s="3"/>
       <c r="AZ197" s="3"/>
     </row>
-    <row r="198" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="6" t="s">
-        <v>288</v>
+        <v>237</v>
       </c>
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
@@ -24481,9 +24388,9 @@
         <v>11.4582234429077</v>
       </c>
     </row>
-    <row r="199" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="6" t="s">
-        <v>289</v>
+        <v>238</v>
       </c>
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
@@ -24625,9 +24532,9 @@
         <v>61.612323111844603</v>
       </c>
     </row>
-    <row r="200" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="6" t="s">
-        <v>290</v>
+        <v>239</v>
       </c>
       <c r="B200" s="6">
         <v>21.173390260914601</v>
@@ -24783,9 +24690,9 @@
         <v>24.505860466083401</v>
       </c>
     </row>
-    <row r="201" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="6" t="s">
-        <v>291</v>
+        <v>240</v>
       </c>
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
@@ -24869,9 +24776,9 @@
         <v>36.080069051509099</v>
       </c>
     </row>
-    <row r="202" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="6" t="s">
-        <v>292</v>
+        <v>241</v>
       </c>
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
@@ -24925,9 +24832,9 @@
       <c r="AY202" s="3"/>
       <c r="AZ202" s="3"/>
     </row>
-    <row r="203" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="6" t="s">
-        <v>293</v>
+        <v>242</v>
       </c>
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
@@ -24981,9 +24888,9 @@
       <c r="AY203" s="3"/>
       <c r="AZ203" s="3"/>
     </row>
-    <row r="204" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="6" t="s">
-        <v>294</v>
+        <v>243</v>
       </c>
       <c r="B204" s="3"/>
       <c r="C204" s="3"/>
@@ -25105,9 +25012,9 @@
       <c r="AY204" s="3"/>
       <c r="AZ204" s="3"/>
     </row>
-    <row r="205" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="6" t="s">
-        <v>295</v>
+        <v>244</v>
       </c>
       <c r="B205" s="3"/>
       <c r="C205" s="3"/>
@@ -25257,9 +25164,9 @@
         <v>16.263505170489601</v>
       </c>
     </row>
-    <row r="206" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="6" t="s">
-        <v>296</v>
+        <v>245</v>
       </c>
       <c r="B206" s="3"/>
       <c r="C206" s="3"/>
@@ -25407,9 +25314,9 @@
         <v>208.95024483496701</v>
       </c>
     </row>
-    <row r="207" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="6" t="s">
-        <v>297</v>
+        <v>246</v>
       </c>
       <c r="B207" s="3"/>
       <c r="C207" s="3"/>
@@ -25513,9 +25420,9 @@
         <v>89.055331453083298</v>
       </c>
     </row>
-    <row r="208" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="6" t="s">
-        <v>298</v>
+        <v>247</v>
       </c>
       <c r="B208" s="3"/>
       <c r="C208" s="3"/>
@@ -25613,9 +25520,9 @@
         <v>72.296709095063804</v>
       </c>
     </row>
-    <row r="209" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="6" t="s">
-        <v>299</v>
+        <v>248</v>
       </c>
       <c r="B209" s="3"/>
       <c r="C209" s="3"/>
@@ -25731,9 +25638,9 @@
         <v>25.834640725435801</v>
       </c>
     </row>
-    <row r="210" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="6" t="s">
-        <v>300</v>
+        <v>249</v>
       </c>
       <c r="B210" s="6">
         <v>15.9970508574224</v>
@@ -25847,9 +25754,9 @@
       <c r="AY210" s="3"/>
       <c r="AZ210" s="3"/>
     </row>
-    <row r="211" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="6" t="s">
-        <v>301</v>
+        <v>250</v>
       </c>
       <c r="B211" s="3"/>
       <c r="C211" s="3"/>
@@ -25903,9 +25810,9 @@
       <c r="AY211" s="3"/>
       <c r="AZ211" s="3"/>
     </row>
-    <row r="212" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="6" t="s">
-        <v>302</v>
+        <v>251</v>
       </c>
       <c r="B212" s="6">
         <v>30.723168821584199</v>
@@ -26061,9 +25968,9 @@
         <v>28.821449933052499</v>
       </c>
     </row>
-    <row r="213" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="6" t="s">
-        <v>303</v>
+        <v>252</v>
       </c>
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
@@ -26117,9 +26024,9 @@
       <c r="AY213" s="3"/>
       <c r="AZ213" s="3"/>
     </row>
-    <row r="214" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="6" t="s">
-        <v>304</v>
+        <v>253</v>
       </c>
       <c r="B214" s="6">
         <v>7.9723561783976002</v>
@@ -26275,9 +26182,9 @@
         <v>30.264493043245199</v>
       </c>
     </row>
-    <row r="215" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="6" t="s">
-        <v>305</v>
+        <v>254</v>
       </c>
       <c r="B215" s="6">
         <v>27.537548156227299</v>
@@ -26433,9 +26340,9 @@
         <v>23.057354474775799</v>
       </c>
     </row>
-    <row r="216" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="6" t="s">
-        <v>306</v>
+        <v>255</v>
       </c>
       <c r="B216" s="6">
         <v>13.309412401379699</v>
@@ -26591,9 +26498,9 @@
         <v>18.4737104467502</v>
       </c>
     </row>
-    <row r="217" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="6" t="s">
-        <v>307</v>
+        <v>256</v>
       </c>
       <c r="B217" s="6">
         <v>50.254065040999997</v>
@@ -26737,9 +26644,9 @@
       <c r="AY217" s="3"/>
       <c r="AZ217" s="3"/>
     </row>
-    <row r="218" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="6" t="s">
-        <v>308</v>
+        <v>257</v>
       </c>
       <c r="B218" s="3"/>
       <c r="C218" s="3"/>
@@ -26793,9 +26700,9 @@
       <c r="AY218" s="3"/>
       <c r="AZ218" s="3"/>
     </row>
-    <row r="219" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="6" t="s">
-        <v>309</v>
+        <v>258</v>
       </c>
       <c r="B219" s="6">
         <v>41.974629752854</v>
@@ -26951,9 +26858,9 @@
         <v>56.3047605858117</v>
       </c>
     </row>
-    <row r="220" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="6" t="s">
-        <v>310</v>
+        <v>259</v>
       </c>
       <c r="B220" s="6">
         <v>22.343137203944298</v>
@@ -27109,9 +27016,9 @@
         <v>49.930221947881201</v>
       </c>
     </row>
-    <row r="221" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="6" t="s">
-        <v>311</v>
+        <v>260</v>
       </c>
       <c r="B221" s="6">
         <v>27.187001892970699</v>
@@ -27247,9 +27154,9 @@
         <v>51.202425459994501</v>
       </c>
     </row>
-    <row r="222" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="6" t="s">
-        <v>312</v>
+        <v>261</v>
       </c>
       <c r="B222" s="6">
         <v>17.599094764522299</v>
@@ -27403,9 +27310,9 @@
       </c>
       <c r="AZ222" s="3"/>
     </row>
-    <row r="223" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="6" t="s">
-        <v>313</v>
+        <v>262</v>
       </c>
       <c r="B223" s="3"/>
       <c r="C223" s="3"/>
@@ -27459,9 +27366,9 @@
       <c r="AY223" s="3"/>
       <c r="AZ223" s="3"/>
     </row>
-    <row r="224" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="6" t="s">
-        <v>314</v>
+        <v>263</v>
       </c>
       <c r="B224" s="3"/>
       <c r="C224" s="3"/>
@@ -27563,9 +27470,9 @@
         <v>15.3388952445019</v>
       </c>
     </row>
-    <row r="225" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="6" t="s">
-        <v>315</v>
+        <v>264</v>
       </c>
       <c r="B225" s="3"/>
       <c r="C225" s="3"/>
@@ -27663,9 +27570,9 @@
         <v>31.0574159957029</v>
       </c>
     </row>
-    <row r="226" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="6" t="s">
-        <v>316</v>
+        <v>265</v>
       </c>
       <c r="B226" s="6">
         <v>16.944504136189199</v>
@@ -27821,9 +27728,9 @@
         <v>76.943518934389303</v>
       </c>
     </row>
-    <row r="227" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="6" t="s">
-        <v>317</v>
+        <v>266</v>
       </c>
       <c r="B227" s="3"/>
       <c r="C227" s="3"/>
@@ -27877,9 +27784,9 @@
       <c r="AY227" s="3"/>
       <c r="AZ227" s="3"/>
     </row>
-    <row r="228" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="6" t="s">
-        <v>318</v>
+        <v>267</v>
       </c>
       <c r="B228" s="6">
         <v>39.244393304654302</v>
@@ -28035,9 +27942,9 @@
         <v>40.9145393472091</v>
       </c>
     </row>
-    <row r="229" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="6" t="s">
-        <v>319</v>
+        <v>268</v>
       </c>
       <c r="B229" s="3"/>
       <c r="C229" s="3"/>
@@ -28091,9 +27998,9 @@
       <c r="AY229" s="3"/>
       <c r="AZ229" s="3"/>
     </row>
-    <row r="230" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="6" t="s">
-        <v>320</v>
+        <v>269</v>
       </c>
       <c r="B230" s="3"/>
       <c r="C230" s="3"/>
@@ -28221,9 +28128,9 @@
         <v>17.8861129985536</v>
       </c>
     </row>
-    <row r="231" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="6" t="s">
-        <v>321</v>
+        <v>270</v>
       </c>
       <c r="B231" s="3"/>
       <c r="C231" s="3"/>
@@ -28277,9 +28184,9 @@
       <c r="AY231" s="3"/>
       <c r="AZ231" s="3"/>
     </row>
-    <row r="232" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="6" t="s">
-        <v>322</v>
+        <v>271</v>
       </c>
       <c r="B232" s="6">
         <v>69.575136063960201</v>
@@ -28433,9 +28340,9 @@
       </c>
       <c r="AZ232" s="3"/>
     </row>
-    <row r="233" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="6" t="s">
-        <v>323</v>
+        <v>272</v>
       </c>
       <c r="B233" s="6">
         <v>20.121759736952502</v>
@@ -28591,9 +28498,9 @@
         <v>50.9615166725821</v>
       </c>
     </row>
-    <row r="234" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="6" t="s">
-        <v>324</v>
+        <v>273</v>
       </c>
       <c r="B234" s="6">
         <v>5.0740016375911701</v>
@@ -28749,9 +28656,9 @@
         <v>23.740840161885298</v>
       </c>
     </row>
-    <row r="235" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="6" t="s">
-        <v>325</v>
+        <v>274</v>
       </c>
       <c r="B235" s="3"/>
       <c r="C235" s="3"/>
@@ -28847,9 +28754,9 @@
         <v>77.814649917619803</v>
       </c>
     </row>
-    <row r="236" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="6" t="s">
-        <v>326</v>
+        <v>275</v>
       </c>
       <c r="B236" s="3"/>
       <c r="C236" s="3"/>
@@ -28903,9 +28810,9 @@
       <c r="AY236" s="3"/>
       <c r="AZ236" s="3"/>
     </row>
-    <row r="237" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="6" t="s">
-        <v>327</v>
+        <v>276</v>
       </c>
       <c r="B237" s="3"/>
       <c r="C237" s="3"/>
@@ -28959,9 +28866,9 @@
       <c r="AY237" s="3"/>
       <c r="AZ237" s="3"/>
     </row>
-    <row r="238" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="6" t="s">
-        <v>328</v>
+        <v>277</v>
       </c>
       <c r="B238" s="6">
         <v>24.418240697382799</v>
@@ -29117,9 +29024,9 @@
         <v>23.668268517386199</v>
       </c>
     </row>
-    <row r="239" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="6" t="s">
-        <v>329</v>
+        <v>278</v>
       </c>
       <c r="B239" s="3"/>
       <c r="C239" s="3"/>
@@ -29219,9 +29126,9 @@
         <v>53.771304876196297</v>
       </c>
     </row>
-    <row r="240" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="6" t="s">
-        <v>330</v>
+        <v>279</v>
       </c>
       <c r="B240" s="3"/>
       <c r="C240" s="3"/>
@@ -29295,9 +29202,9 @@
       </c>
       <c r="AZ240" s="3"/>
     </row>
-    <row r="241" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="6" t="s">
-        <v>331</v>
+        <v>280</v>
       </c>
       <c r="B241" s="6">
         <v>19.8952614169071</v>
@@ -29453,9 +29360,9 @@
         <v>32.493158671981</v>
       </c>
     </row>
-    <row r="242" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="6" t="s">
-        <v>332</v>
+        <v>281</v>
       </c>
       <c r="B242" s="6">
         <v>5.1124643924824502</v>
@@ -29611,9 +29518,9 @@
         <v>13.969435605984801</v>
       </c>
     </row>
-    <row r="243" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="6" t="s">
-        <v>333</v>
+        <v>282</v>
       </c>
       <c r="B243" s="6">
         <v>14.297501422284601</v>
@@ -29769,9 +29676,9 @@
         <v>27.0927194474848</v>
       </c>
     </row>
-    <row r="244" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="6" t="s">
-        <v>334</v>
+        <v>283</v>
       </c>
       <c r="B244" s="3"/>
       <c r="C244" s="3"/>
@@ -29825,9 +29732,9 @@
       <c r="AY244" s="3"/>
       <c r="AZ244" s="3"/>
     </row>
-    <row r="245" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="6" t="s">
-        <v>335</v>
+        <v>284</v>
       </c>
       <c r="B245" s="3"/>
       <c r="C245" s="3"/>
@@ -29925,9 +29832,9 @@
         <v>31.6644285143799</v>
       </c>
     </row>
-    <row r="246" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="6" t="s">
-        <v>336</v>
+        <v>285</v>
       </c>
       <c r="B246" s="3"/>
       <c r="C246" s="3"/>
@@ -29981,9 +29888,9 @@
       <c r="AY246" s="3"/>
       <c r="AZ246" s="3"/>
     </row>
-    <row r="247" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="6" t="s">
-        <v>337</v>
+        <v>286</v>
       </c>
       <c r="B247" s="3"/>
       <c r="C247" s="3"/>
@@ -30099,9 +30006,9 @@
       </c>
       <c r="AZ247" s="3"/>
     </row>
-    <row r="248" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="6" t="s">
-        <v>338</v>
+        <v>287</v>
       </c>
       <c r="B248" s="6">
         <v>28.6728047181386</v>
@@ -30257,9 +30164,9 @@
         <v>29.9430146096987</v>
       </c>
     </row>
-    <row r="249" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="6" t="s">
-        <v>339</v>
+        <v>288</v>
       </c>
       <c r="B249" s="3"/>
       <c r="C249" s="3"/>
@@ -30337,9 +30244,9 @@
       <c r="AY249" s="3"/>
       <c r="AZ249" s="3"/>
     </row>
-    <row r="250" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="6" t="s">
-        <v>340</v>
+        <v>289</v>
       </c>
       <c r="B250" s="3"/>
       <c r="C250" s="3"/>
@@ -30393,9 +30300,9 @@
       <c r="AY250" s="3"/>
       <c r="AZ250" s="3"/>
     </row>
-    <row r="251" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="6" t="s">
-        <v>341</v>
+        <v>290</v>
       </c>
       <c r="B251" s="3"/>
       <c r="C251" s="3"/>
@@ -30449,9 +30356,9 @@
       <c r="AY251" s="3"/>
       <c r="AZ251" s="3"/>
     </row>
-    <row r="252" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="6" t="s">
-        <v>342</v>
+        <v>291</v>
       </c>
       <c r="B252" s="3"/>
       <c r="C252" s="3"/>
@@ -30557,9 +30464,9 @@
         <v>87.015820068417895</v>
       </c>
     </row>
-    <row r="253" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="6" t="s">
-        <v>343</v>
+        <v>292</v>
       </c>
       <c r="B253" s="3"/>
       <c r="C253" s="3"/>
@@ -30613,9 +30520,9 @@
       <c r="AY253" s="3"/>
       <c r="AZ253" s="3"/>
     </row>
-    <row r="254" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="6" t="s">
-        <v>344</v>
+        <v>293</v>
       </c>
       <c r="B254" s="3"/>
       <c r="C254" s="3"/>
@@ -30669,9 +30576,9 @@
       <c r="AY254" s="3"/>
       <c r="AZ254" s="3"/>
     </row>
-    <row r="255" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="6" t="s">
-        <v>345</v>
+        <v>294</v>
       </c>
       <c r="B255" s="3"/>
       <c r="C255" s="3"/>
@@ -30725,9 +30632,9 @@
       <c r="AY255" s="3"/>
       <c r="AZ255" s="3"/>
     </row>
-    <row r="256" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="6" t="s">
-        <v>346</v>
+        <v>295</v>
       </c>
       <c r="B256" s="3"/>
       <c r="C256" s="3"/>
@@ -30823,9 +30730,9 @@
       </c>
       <c r="AZ256" s="3"/>
     </row>
-    <row r="257" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="6" t="s">
-        <v>347</v>
+        <v>296</v>
       </c>
       <c r="B257" s="3"/>
       <c r="C257" s="3"/>
@@ -30879,9 +30786,9 @@
       <c r="AY257" s="3"/>
       <c r="AZ257" s="3"/>
     </row>
-    <row r="258" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="6" t="s">
-        <v>348</v>
+        <v>297</v>
       </c>
       <c r="B258" s="6">
         <v>52.359458350430899</v>
@@ -31037,9 +30944,9 @@
         <v>46.038293062854798</v>
       </c>
     </row>
-    <row r="259" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="6" t="s">
-        <v>349</v>
+        <v>298</v>
       </c>
       <c r="B259" s="3"/>
       <c r="C259" s="3"/>
@@ -31167,9 +31074,9 @@
         <v>49.410861538800397</v>
       </c>
     </row>
-    <row r="260" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="6" t="s">
-        <v>350</v>
+        <v>299</v>
       </c>
       <c r="B260" s="3"/>
       <c r="C260" s="3"/>
@@ -31223,9 +31130,9 @@
       <c r="AY260" s="3"/>
       <c r="AZ260" s="3"/>
     </row>
-    <row r="261" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="6" t="s">
-        <v>351</v>
+        <v>300</v>
       </c>
       <c r="B261" s="3"/>
       <c r="C261" s="3"/>
@@ -31287,9 +31194,9 @@
         <v>64.8876811439183</v>
       </c>
     </row>
-    <row r="262" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="6" t="s">
-        <v>352</v>
+        <v>301</v>
       </c>
       <c r="B262" s="3"/>
       <c r="C262" s="3"/>
@@ -31343,9 +31250,9 @@
       <c r="AY262" s="3"/>
       <c r="AZ262" s="3"/>
     </row>
-    <row r="263" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="6" t="s">
-        <v>353</v>
+        <v>302</v>
       </c>
       <c r="B263" s="3"/>
       <c r="C263" s="3"/>
@@ -31399,9 +31306,9 @@
       <c r="AY263" s="3"/>
       <c r="AZ263" s="3"/>
     </row>
-    <row r="264" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="6" t="s">
-        <v>354</v>
+        <v>303</v>
       </c>
       <c r="B264" s="3"/>
       <c r="C264" s="3"/>
@@ -31455,9 +31362,9 @@
       <c r="AY264" s="3"/>
       <c r="AZ264" s="3"/>
     </row>
-    <row r="265" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="6" t="s">
-        <v>355</v>
+        <v>304</v>
       </c>
       <c r="B265" s="3"/>
       <c r="C265" s="3"/>
@@ -31511,9 +31418,9 @@
       <c r="AY265" s="3"/>
       <c r="AZ265" s="3"/>
     </row>
-    <row r="266" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="6" t="s">
-        <v>356</v>
+        <v>305</v>
       </c>
       <c r="B266" s="3"/>
       <c r="C266" s="3"/>
@@ -31567,9 +31474,9 @@
       <c r="AY266" s="3"/>
       <c r="AZ266" s="3"/>
     </row>
-    <row r="267" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="6" t="s">
-        <v>357</v>
+        <v>306</v>
       </c>
       <c r="B267" s="3"/>
       <c r="C267" s="3"/>
@@ -31623,9 +31530,9 @@
       <c r="AY267" s="3"/>
       <c r="AZ267" s="3"/>
     </row>
-    <row r="268" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="6" t="s">
-        <v>358</v>
+        <v>307</v>
       </c>
       <c r="B268" s="3"/>
       <c r="C268" s="3"/>
@@ -31679,9 +31586,9 @@
       <c r="AY268" s="3"/>
       <c r="AZ268" s="3"/>
     </row>
-    <row r="269" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="6" t="s">
-        <v>359</v>
+        <v>308</v>
       </c>
       <c r="B269" s="3"/>
       <c r="C269" s="3"/>
@@ -31735,9 +31642,9 @@
       <c r="AY269" s="3"/>
       <c r="AZ269" s="3"/>
     </row>
-    <row r="270" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="6" t="s">
-        <v>360</v>
+        <v>309</v>
       </c>
       <c r="B270" s="3"/>
       <c r="C270" s="3"/>
@@ -31791,9 +31698,9 @@
       <c r="AY270" s="3"/>
       <c r="AZ270" s="3"/>
     </row>
-    <row r="271" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="6" t="s">
-        <v>361</v>
+        <v>310</v>
       </c>
       <c r="B271" s="3"/>
       <c r="C271" s="3"/>
@@ -31847,9 +31754,9 @@
       <c r="AY271" s="3"/>
       <c r="AZ271" s="3"/>
     </row>
-    <row r="272" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="6" t="s">
-        <v>362</v>
+        <v>311</v>
       </c>
       <c r="B272" s="3"/>
       <c r="C272" s="3"/>
@@ -31903,9 +31810,9 @@
       <c r="AY272" s="3"/>
       <c r="AZ272" s="3"/>
     </row>
-    <row r="273" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="6" t="s">
-        <v>363</v>
+        <v>312</v>
       </c>
       <c r="B273" s="3"/>
       <c r="C273" s="3"/>
@@ -31959,9 +31866,9 @@
       <c r="AY273" s="3"/>
       <c r="AZ273" s="3"/>
     </row>
-    <row r="274" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="6" t="s">
-        <v>364</v>
+        <v>313</v>
       </c>
       <c r="B274" s="3"/>
       <c r="C274" s="3"/>
@@ -32015,9 +31922,9 @@
       <c r="AY274" s="3"/>
       <c r="AZ274" s="3"/>
     </row>
-    <row r="275" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="6" t="s">
-        <v>365</v>
+        <v>314</v>
       </c>
       <c r="B275" s="3"/>
       <c r="C275" s="3"/>
@@ -32071,9 +31978,9 @@
       <c r="AY275" s="3"/>
       <c r="AZ275" s="3"/>
     </row>
-    <row r="276" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:52" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="6" t="s">
-        <v>366</v>
+        <v>315</v>
       </c>
       <c r="B276" s="3"/>
       <c r="C276" s="3"/>
@@ -32130,6 +32037,7 @@
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -32142,16 +32050,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.33203125" customWidth="1"/>
-    <col min="2" max="2" width="41.1640625" customWidth="1"/>
+    <col min="2" max="2" width="41.109375" customWidth="1"/>
     <col min="3" max="3" width="84.33203125" customWidth="1"/>
-    <col min="4" max="4" width="2.1640625" customWidth="1"/>
+    <col min="4" max="4" width="2.109375" customWidth="1"/>
     <col min="5" max="6" width="0.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="34" t="str">
         <f>C4</f>
@@ -32162,7 +32070,7 @@
       <c r="E1" s="8"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -32170,20 +32078,20 @@
       <c r="E2" s="8"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="10" t="s">
-        <v>55</v>
+        <v>4</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="8"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="11" t="s">
-        <v>57</v>
+        <v>6</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>1</v>
@@ -32192,29 +32100,29 @@
       <c r="E4" s="8"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="11" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="8"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="11" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="7"/>
       <c r="E6" s="8"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="15"/>
       <c r="C7" s="9"/>
@@ -32222,65 +32130,65 @@
       <c r="E7" s="8"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="16" t="s">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="8"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="17" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="8"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="17" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="8"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="17" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="8"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="17" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="8"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -32288,41 +32196,41 @@
       <c r="E13" s="8"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="16" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="8"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="17" t="s">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="8"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="17" t="s">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="8"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="21"/>
@@ -32330,7 +32238,7 @@
       <c r="E17" s="8"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="21"/>
@@ -32338,7 +32246,7 @@
       <c r="E18" s="8"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="21"/>
@@ -32346,7 +32254,7 @@
       <c r="E19" s="8"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="21"/>
@@ -32354,7 +32262,7 @@
       <c r="E20" s="8"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="21"/>
@@ -32362,7 +32270,7 @@
       <c r="E21" s="8"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="21"/>
@@ -32370,7 +32278,7 @@
       <c r="E22" s="8"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -32378,7 +32286,7 @@
       <c r="E23" s="8"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -32407,15 +32315,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5" customWidth="1"/>
+    <col min="1" max="1" width="17.44140625" customWidth="1"/>
     <col min="2" max="2" width="19.33203125" customWidth="1"/>
-    <col min="3" max="3" width="84.1640625" customWidth="1"/>
-    <col min="4" max="6" width="5.1640625" customWidth="1"/>
+    <col min="3" max="3" width="84.109375" customWidth="1"/>
+    <col min="4" max="6" width="5.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -32429,7 +32337,7 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -32437,7 +32345,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -32445,7 +32353,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -32453,7 +32361,7 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -32461,7 +32369,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -32469,7 +32377,7 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -32477,7 +32385,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -32485,7 +32393,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -32493,7 +32401,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -32501,7 +32409,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -32509,7 +32417,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -32517,7 +32425,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -32525,7 +32433,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -32533,7 +32441,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -32541,7 +32449,7 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -32549,7 +32457,7 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -32557,7 +32465,7 @@
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -32565,7 +32473,7 @@
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -32573,7 +32481,7 @@
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -32595,18 +32503,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.83203125" customWidth="1"/>
-    <col min="2" max="2" width="50.5" customWidth="1"/>
+    <col min="1" max="1" width="15.77734375" customWidth="1"/>
+    <col min="2" max="2" width="50.44140625" customWidth="1"/>
     <col min="3" max="3" width="1.33203125" customWidth="1"/>
-    <col min="4" max="4" width="52.5" customWidth="1"/>
+    <col min="4" max="4" width="52.44140625" customWidth="1"/>
     <col min="5" max="6" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="36" t="s">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="B1" s="37"/>
       <c r="C1" s="37"/>
@@ -32614,7 +32522,7 @@
       <c r="E1" s="8"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="7"/>
@@ -32622,49 +32530,49 @@
       <c r="E2" s="8"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>93</v>
+        <v>42</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="C3" s="24"/>
       <c r="D3" s="25" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>96</v>
+        <v>45</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="C4" s="24"/>
       <c r="D4" s="25" t="s">
-        <v>101</v>
+        <v>50</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>102</v>
+        <v>51</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>103</v>
+        <v>52</v>
       </c>
       <c r="C5" s="24"/>
       <c r="D5" s="25" t="s">
-        <v>104</v>
+        <v>53</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="22"/>
@@ -32672,7 +32580,7 @@
       <c r="E6" s="8"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -32680,7 +32588,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -32688,7 +32596,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -32696,7 +32604,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -32704,7 +32612,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -32712,7 +32620,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -32720,7 +32628,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -32728,7 +32636,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -32736,7 +32644,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -32744,7 +32652,7 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -32752,7 +32660,7 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -32760,7 +32668,7 @@
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -32768,7 +32676,7 @@
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -32776,7 +32684,7 @@
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -32804,26 +32712,26 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.5" customWidth="1"/>
+    <col min="1" max="1" width="1.44140625" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
     <col min="3" max="3" width="84.33203125" customWidth="1"/>
-    <col min="4" max="4" width="2.1640625" customWidth="1"/>
+    <col min="4" max="4" width="2.109375" customWidth="1"/>
     <col min="5" max="6" width="0.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="34" t="s">
-        <v>110</v>
+        <v>59</v>
       </c>
       <c r="C1" s="35"/>
       <c r="D1" s="7"/>
       <c r="E1" s="8"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -32831,53 +32739,53 @@
       <c r="E2" s="8"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="38" t="s">
-        <v>112</v>
+        <v>61</v>
       </c>
       <c r="C3" s="37"/>
       <c r="D3" s="7"/>
       <c r="E3" s="8"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="28"/>
       <c r="B4" s="29" t="s">
-        <v>114</v>
+        <v>63</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>115</v>
+        <v>64</v>
       </c>
       <c r="D4" s="32"/>
       <c r="E4" s="8"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="28"/>
       <c r="B5" s="29" t="s">
-        <v>120</v>
+        <v>69</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>121</v>
+        <v>70</v>
       </c>
       <c r="D5" s="32"/>
       <c r="E5" s="8"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="28"/>
       <c r="B6" s="29" t="s">
-        <v>122</v>
+        <v>71</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>123</v>
+        <v>72</v>
       </c>
       <c r="D6" s="32"/>
       <c r="E6" s="8"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="28"/>
       <c r="B7" s="33"/>
       <c r="C7" s="33"/>
@@ -32885,7 +32793,7 @@
       <c r="E7" s="8"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -32893,7 +32801,7 @@
       <c r="E8" s="8"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -32901,7 +32809,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -32909,7 +32817,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -32917,7 +32825,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -32925,7 +32833,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -32933,7 +32841,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -32941,7 +32849,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -32949,7 +32857,7 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -32957,7 +32865,7 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -32965,7 +32873,7 @@
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -32973,7 +32881,7 @@
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -32981,7 +32889,7 @@
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -33007,25 +32915,25 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="15.1640625" customWidth="1"/>
-    <col min="3" max="6" width="5.1640625" customWidth="1"/>
+    <col min="1" max="2" width="15.109375" customWidth="1"/>
+    <col min="3" max="6" width="5.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
-        <v>116</v>
+        <v>65</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>118</v>
+        <v>67</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -33033,7 +32941,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -33041,7 +32949,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -33049,7 +32957,7 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -33057,7 +32965,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -33065,7 +32973,7 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -33073,7 +32981,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -33081,7 +32989,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -33089,7 +32997,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -33097,7 +33005,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -33105,7 +33013,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -33113,7 +33021,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -33121,7 +33029,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -33129,7 +33037,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -33137,7 +33045,7 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -33145,7 +33053,7 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -33153,7 +33061,7 @@
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -33161,7 +33069,7 @@
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -33169,7 +33077,7 @@
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
